--- a/db/HOSPITAL.xlsx
+++ b/db/HOSPITAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,23 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kims@prac.to</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0987654321</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/HOSPITAL.xlsx
+++ b/db/HOSPITAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,14 +456,46 @@
           <t>kims@prac.to</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
+      <c r="B2" t="n">
+        <v>987654321</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Bangalore</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>apollo@prac.to</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>practo@oafaz.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>snfkjad</t>
         </is>
       </c>
     </row>
